--- a/BalanceSheet/PGR_bal.xlsx
+++ b/BalanceSheet/PGR_bal.xlsx
@@ -4117,7 +4117,7 @@
         <v>5212600000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>4381600000.0</v>
+        <v>4179700000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>4360300000.0</v>
@@ -4244,7 +4244,7 @@
         <v>5583000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>4609000000.0</v>
+        <v>4407100000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>4406500000.0</v>
